--- a/medicine/Psychotrope/Dinkelbier/Dinkelbier.xlsx
+++ b/medicine/Psychotrope/Dinkelbier/Dinkelbier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dinkelbier (« bière d'épeautre » en allemand) est un type de bière de fermentation haute originaire de Bavière en Allemagne. Elle s'apparente aux weizenbier. 
 Cette bière a une mousse très ferme et épaisse et sa teneur en alcool est modérée (4,5 %).
@@ -512,7 +524,9 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que l'épeautre soit très protéinique et qu'il faille le décortiquer, il est encore utilisé par quelques brasseries (rarement au-delà de 50 % en volume) car il offre un goût rustique.
 Le brassage est rendu difficile du fait qu'une fois fermenté, cette céréale a besoin d'une période de maturation de plusieurs mois à très basse température.
